--- a/data/vgp_database/Coso_Range_volcanics.xlsx
+++ b/data/vgp_database/Coso_Range_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA65FD3-6872-BB47-ACA7-90BEA9D1D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B3102-3CA0-A04E-9F26-C5BF3FF8AD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="720" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>Name:</t>
   </si>
@@ -276,15 +276,6 @@
   </si>
   <si>
     <t>10.1029/GL009i011p01279</t>
-  </si>
-  <si>
-    <t>10.1029/GL009i011p01280</t>
-  </si>
-  <si>
-    <t>10.1029/GL009i011p01281</t>
-  </si>
-  <si>
-    <t>10.1029/GL009i011p01282</t>
   </si>
 </sst>
 </file>
@@ -693,7 +684,7 @@
   <dimension ref="A1:AQ689"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1523,8 +1514,9 @@
         <v>68</v>
       </c>
       <c r="AO10" s="22"/>
-      <c r="AP10" s="28" t="s">
-        <v>80</v>
+      <c r="AP10" s="28" t="str">
+        <f>AP9</f>
+        <v>10.1029/GL009i011p01279</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,8 +1621,9 @@
       </c>
       <c r="AN11" s="22"/>
       <c r="AO11" s="22"/>
-      <c r="AP11" s="28" t="s">
-        <v>81</v>
+      <c r="AP11" s="28" t="str">
+        <f t="shared" ref="AP11:AP12" si="0">AP10</f>
+        <v>10.1029/GL009i011p01279</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,8 +1728,9 @@
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="22"/>
-      <c r="AP12" s="28" t="s">
-        <v>82</v>
+      <c r="AP12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/GL009i011p01279</v>
       </c>
       <c r="AQ12" s="13"/>
     </row>
@@ -32100,7 +32094,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/GL009i011p01279" xr:uid="{C41EC5F9-726E-2245-BFFD-E7D97FE6E84E}"/>
-    <hyperlink ref="AP10:AP12" r:id="rId2" display="https://doi.org/10.1029/GL009i011p01279" xr:uid="{6A73E709-1FB9-D045-BBA1-8061BA332E8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
